--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\JobConnector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4524FB08-07D7-471E-8A10-503AB9AEF33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36FC256-FC6C-418B-801D-8FBA89AB01FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" activeCellId="1" sqref="H9 J17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\JobConnector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36FC256-FC6C-418B-801D-8FBA89AB01FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E058084-CFCE-40D6-9000-CD1C8DC20D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="150" windowWidth="17805" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
